--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
         <v>9800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1015,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1010,11 +1030,14 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E17" s="3">
         <v>13200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,87 +1221,93 @@
         <v>3400</v>
       </c>
       <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-4900</v>
       </c>
       <c r="M21" s="3">
         <v>-4900</v>
       </c>
       <c r="N21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,8 +1332,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1307,55 +1347,61 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1365,12 +1411,12 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1380,8 +1426,8 @@
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>-3400</v>
       </c>
       <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,70 +2053,74 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E41" s="3">
         <v>21700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E42" s="3">
         <v>71700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E43" s="3">
         <v>11800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2239,105 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1500</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
       </c>
       <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>800</v>
       </c>
       <c r="O45" s="3">
+        <v>800</v>
+      </c>
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E46" s="3">
         <v>107900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>115700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>115500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>124100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>130100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>59400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,22 +2380,25 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
         <v>4000</v>
       </c>
       <c r="F48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2300</v>
       </c>
       <c r="H48" s="3">
         <v>2300</v>
@@ -2299,28 +2407,31 @@
         <v>2300</v>
       </c>
       <c r="J48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2480,8 +2600,8 @@
       <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
+      <c r="L52" s="3">
+        <v>200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
@@ -2492,11 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E54" s="3">
         <v>112100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>119900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>126500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>57600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3000</v>
       </c>
       <c r="H57" s="3">
         <v>3000</v>
       </c>
       <c r="I57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,14 +2808,14 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2698,105 +2832,114 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>10500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>23200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2819,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2828,49 +2971,52 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2880,11 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E66" s="3">
         <v>14300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E76" s="3">
         <v>97800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>101900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>107000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,7 +3857,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1500</v>
+        <v>9800</v>
       </c>
       <c r="E94" s="3">
         <v>-1500</v>
       </c>
       <c r="F94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>34100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>82800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
+      <c r="O101" s="3">
+        <v>100</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-64800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>30600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E12" s="3">
         <v>11200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1037,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>14300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="3">
         <v>3400</v>
       </c>
       <c r="F20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-4900</v>
       </c>
       <c r="N21" s="3">
         <v>-4900</v>
       </c>
       <c r="O21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1335,8 +1374,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1350,63 +1389,69 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>-100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>5</v>
@@ -1414,12 +1459,12 @@
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1429,8 +1474,8 @@
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-2300</v>
       </c>
       <c r="E32" s="3">
         <v>-3400</v>
       </c>
       <c r="F32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,76 +2139,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E41" s="3">
         <v>18600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>121100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>51100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E42" s="3">
         <v>62000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>71700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2228,8 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2337,111 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1500</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
       </c>
       <c r="L45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E46" s="3">
         <v>99000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>107900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>115700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>124100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>130100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,25 +2487,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4000</v>
       </c>
       <c r="F48" s="3">
         <v>4000</v>
       </c>
       <c r="G48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H48" s="3">
         <v>2400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2300</v>
       </c>
       <c r="I48" s="3">
         <v>2300</v>
@@ -2410,28 +2517,31 @@
         <v>2300</v>
       </c>
       <c r="K48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2603,8 +2722,8 @@
       <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
@@ -2615,11 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E54" s="3">
         <v>102900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>119900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>118100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>126500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>132600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>57600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3000</v>
       </c>
       <c r="I57" s="3">
         <v>3000</v>
       </c>
       <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,14 +2944,14 @@
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2835,111 +2968,120 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2965,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -2974,52 +3116,55 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3029,11 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-121600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-80000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E76" s="3">
         <v>89700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>97800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>101900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>107000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +4058,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,46 +4404,49 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E94" s="3">
         <v>9800</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1500</v>
       </c>
       <c r="F94" s="3">
         <v>-1500</v>
       </c>
       <c r="G94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>34100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,136 +4824,145 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>82800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>100</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
+      <c r="P101" s="3">
+        <v>100</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-64800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>30600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
         <v>9500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>2300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3400</v>
       </c>
       <c r="F20" s="3">
         <v>3400</v>
       </c>
       <c r="G20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-4900</v>
       </c>
       <c r="O21" s="3">
         <v>-4900</v>
       </c>
       <c r="P21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
@@ -1392,82 +1432,88 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1477,8 +1523,8 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-3400</v>
       </c>
       <c r="F32" s="3">
         <v>-3400</v>
       </c>
       <c r="G32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,82 +2226,86 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>32000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>121100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E42" s="3">
         <v>51900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>62000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>71700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E43" s="3">
         <v>16500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1500</v>
       </c>
       <c r="L45" s="3">
         <v>1500</v>
       </c>
       <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>800</v>
       </c>
       <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E46" s="3">
         <v>88700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>99000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>107900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>115700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>115500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>124100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>130100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>65700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,28 +2595,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4000</v>
       </c>
       <c r="G48" s="3">
         <v>4000</v>
       </c>
       <c r="H48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2300</v>
       </c>
       <c r="J48" s="3">
         <v>2300</v>
@@ -2520,28 +2628,31 @@
         <v>2300</v>
       </c>
       <c r="L48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2725,8 +2845,8 @@
       <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
+      <c r="N52" s="3">
+        <v>200</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
@@ -2737,11 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E54" s="3">
         <v>92500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>102900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>126500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>132600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>57600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3000</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
       </c>
       <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2947,14 +3081,14 @@
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2971,117 +3105,126 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3110,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3119,55 +3262,58 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3177,11 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-132400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-121600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-115000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-99800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-84000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-80000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-71000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-51700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E76" s="3">
         <v>83800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>89700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>97800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>101900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>104000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>107000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4061,7 +4260,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4407,46 +4628,49 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E94" s="3">
         <v>10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1500</v>
       </c>
       <c r="G94" s="3">
         <v>-1500</v>
       </c>
       <c r="H94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>34100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,142 +5073,151 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>82800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
+      <c r="Q101" s="3">
+        <v>100</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-64800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>30600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,93 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,52 +759,58 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +862,14 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +948,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11200</v>
+        <v>9100</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
         <v>11200</v>
       </c>
       <c r="G12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I12" s="3">
         <v>9800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>11100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,11 +1103,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1078,11 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1204,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14400</v>
+        <v>12700</v>
       </c>
       <c r="E17" s="3">
         <v>12800</v>
       </c>
       <c r="F17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>13200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>12900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1274,58 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1356,58 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>900</v>
       </c>
       <c r="R20" s="3">
         <v>500</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="T20" s="3">
+        <v>500</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1415,58 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-9200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-8300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,11 +1500,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1435,102 +1515,114 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-10800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-10800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +2064,117 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-900</v>
       </c>
       <c r="R32" s="3">
         <v>-500</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-900</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,91 +2399,99 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>30100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>32000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>56300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>121100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>48100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>58700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>28100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>26500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>31000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>33500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F42" s="3">
         <v>46300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>51900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>62000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>71700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>70300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>68800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>54800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2324,70 +2504,82 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F43" s="3">
         <v>12600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>16500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>14800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>11800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>11300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>9000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>6800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2631,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F46" s="3">
         <v>80200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>88700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>99000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>107900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>115700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>115500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>124100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>130100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>55200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>59400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>65700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>34100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>30200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>34200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>38000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,52 +2823,58 @@
         <v>3500</v>
       </c>
       <c r="E48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G48" s="3">
         <v>3700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2300</v>
       </c>
       <c r="L48" s="3">
         <v>2300</v>
       </c>
       <c r="M48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2848,11 +3088,11 @@
       <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>200</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
@@ -2860,11 +3100,17 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F54" s="3">
         <v>83900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>92500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>102900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>112100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>119900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>118100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>126500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>132600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>57600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>61400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>66700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>34300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>38100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3084,17 +3352,17 @@
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3108,123 +3376,141 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>20300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>22300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>22900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>24100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3256,81 +3542,93 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>8500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>13900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>21400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>25600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>31400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>34100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>38100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-142800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-132400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-121600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-115000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-105700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-99800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-92500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-84000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-80000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-76700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-71700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-71000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-65800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-60800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-55900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-51700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F76" s="3">
         <v>74400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>83800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>89700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>97800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>101900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>96700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>104000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>107000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>28600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>31100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>26700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>34800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4263,10 +4661,10 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-10500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-10900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-8800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-8700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,46 +5073,52 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F94" s="3">
         <v>5500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-54600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>34100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>11400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>82800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>9100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-24300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-64800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>73000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>30600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>28600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,52 +768,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9100</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
         <v>9100</v>
       </c>
       <c r="F12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G12" s="3">
         <v>11200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1128,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1124,11 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1303,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-14400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,58 +1389,61 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3400</v>
       </c>
       <c r="I20" s="3">
         <v>3400</v>
       </c>
       <c r="J20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1451,61 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-4900</v>
       </c>
       <c r="R21" s="3">
         <v>-4900</v>
       </c>
       <c r="S21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="T21" s="3">
         <v>-4200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1506,8 +1545,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
@@ -1521,70 +1560,76 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,24 +1642,24 @@
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1624,8 +1669,8 @@
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,117 +2133,123 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3400</v>
       </c>
       <c r="I32" s="3">
         <v>-3400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,100 +2486,104 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E41" s="3">
         <v>17700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>56300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>121100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>33500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>198300</v>
+      </c>
+      <c r="E42" s="3">
         <v>32600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>39700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>51900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>62000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>71700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>68800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2599,8 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2519,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E43" s="3">
         <v>7600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1500</v>
       </c>
       <c r="O45" s="3">
         <v>1500</v>
       </c>
       <c r="P45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>800</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
       </c>
       <c r="T45" s="3">
+        <v>800</v>
+      </c>
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>264300</v>
+      </c>
+      <c r="E46" s="3">
         <v>62500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>72100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>88700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>99000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>107900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>115700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>124100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>130100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>55200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>65700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,37 +2918,40 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4000</v>
       </c>
       <c r="J48" s="3">
         <v>4000</v>
       </c>
       <c r="K48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L48" s="3">
         <v>2400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2300</v>
       </c>
       <c r="M48" s="3">
         <v>2300</v>
@@ -2853,28 +2960,31 @@
         <v>2300</v>
       </c>
       <c r="O48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3094,8 +3213,8 @@
       <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>200</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
@@ -3106,11 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E54" s="3">
         <v>66200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>75400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>83900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>92500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>102900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>119900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>118100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>126500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>132600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,99 +3402,103 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>3000</v>
       </c>
       <c r="M57" s="3">
         <v>3000</v>
       </c>
       <c r="N57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3382,135 +3515,144 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
+      <c r="S58" s="3">
+        <v>200</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3548,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3557,64 +3699,67 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13900</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3624,11 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-152900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-142800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-132400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-121600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-84000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-71700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-65800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E76" s="3">
         <v>58600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>65000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>83800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>89700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>97800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>101900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>107000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4667,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5079,46 +5299,49 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="E94" s="3">
         <v>6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>5500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1500</v>
       </c>
       <c r="J94" s="3">
         <v>-1500</v>
       </c>
       <c r="K94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>34100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,20 +5795,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>210300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5574,160 +5819,169 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>82800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
+      <c r="T101" s="3">
+        <v>100</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-64800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>30600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,52 +775,55 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E12" s="3">
         <v>11900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9100</v>
       </c>
       <c r="F12" s="3">
         <v>9100</v>
       </c>
       <c r="G12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H12" s="3">
         <v>11200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E17" s="3">
         <v>18000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3400</v>
       </c>
       <c r="J20" s="3">
         <v>3400</v>
       </c>
       <c r="K20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-4900</v>
       </c>
       <c r="S21" s="3">
         <v>-4900</v>
       </c>
       <c r="T21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="U21" s="3">
         <v>-4200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
@@ -1563,73 +1603,79 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1645,24 +1691,24 @@
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1672,8 +1718,8 @@
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3400</v>
       </c>
       <c r="J32" s="3">
         <v>-3400</v>
       </c>
       <c r="K32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,106 +2573,110 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E41" s="3">
         <v>50600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>17700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>30100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>56300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>121100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>33500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E42" s="3">
         <v>198300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>39700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>51900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>62000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>71700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>68800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2602,8 +2692,8 @@
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E43" s="3">
         <v>10400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1500</v>
       </c>
       <c r="P45" s="3">
         <v>1500</v>
       </c>
       <c r="Q45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>800</v>
       </c>
       <c r="U45" s="3">
+        <v>800</v>
+      </c>
+      <c r="V45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>249800</v>
+      </c>
+      <c r="E46" s="3">
         <v>264300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>62500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>72100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>88700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>99000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>107900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>115700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>124100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>130100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>55200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,40 +3026,43 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4000</v>
       </c>
       <c r="K48" s="3">
         <v>4000</v>
       </c>
       <c r="L48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2300</v>
       </c>
       <c r="N48" s="3">
         <v>2300</v>
@@ -2963,28 +3071,31 @@
         <v>2300</v>
       </c>
       <c r="P48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3216,8 +3336,8 @@
       <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>200</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
@@ -3228,11 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E54" s="3">
         <v>272000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>75400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>83900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>92500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>102900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>118100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>126500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>132600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>61400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
       </c>
       <c r="N57" s="3">
         <v>3000</v>
       </c>
       <c r="O57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3491,17 +3625,17 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
@@ -3518,141 +3652,150 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
+      <c r="T58" s="3">
+        <v>200</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>22300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>24100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3693,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3702,67 +3845,70 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3772,11 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E66" s="3">
         <v>14800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-183900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-152900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-142800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-132400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-121600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-115000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-92500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-80000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-71000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-65800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-51700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>244400</v>
+      </c>
+      <c r="E76" s="3">
         <v>257200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>83800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>89700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>97800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>101900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>104000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4868,7 +5067,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5302,46 +5523,49 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>200</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-166500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1500</v>
       </c>
       <c r="K94" s="3">
         <v>-1500</v>
       </c>
       <c r="L94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>34100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,23 +6041,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>210300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5822,166 +6068,175 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>82800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
       </c>
       <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
+      <c r="U101" s="3">
+        <v>100</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>32900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-64800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,52 +782,55 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9100</v>
       </c>
       <c r="G12" s="3">
         <v>9100</v>
       </c>
       <c r="H12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I12" s="3">
         <v>11200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E17" s="3">
         <v>19500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1457,67 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3400</v>
       </c>
       <c r="K20" s="3">
         <v>3400</v>
       </c>
       <c r="L20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-4900</v>
       </c>
       <c r="T21" s="3">
         <v>-4900</v>
       </c>
       <c r="U21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="V21" s="3">
         <v>-4200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
@@ -1606,76 +1646,82 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1694,24 +1740,24 @@
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1721,8 +1767,8 @@
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3400</v>
       </c>
       <c r="K32" s="3">
         <v>-3400</v>
       </c>
       <c r="L32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,112 +2660,116 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E41" s="3">
         <v>48300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>121100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>33500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E42" s="3">
         <v>182300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>198300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>39700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>46300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>51900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>62000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>68800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2695,8 +2785,8 @@
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E43" s="3">
         <v>13600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,138 +2930,147 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1500</v>
       </c>
       <c r="Q45" s="3">
         <v>1500</v>
       </c>
       <c r="R45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>800</v>
       </c>
       <c r="U45" s="3">
         <v>800</v>
       </c>
       <c r="V45" s="3">
+        <v>800</v>
+      </c>
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E46" s="3">
         <v>249800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>264300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>62500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>72100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>99000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>107900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>124100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>130100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>55200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>59400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,43 +3134,46 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4000</v>
       </c>
       <c r="L48" s="3">
         <v>4000</v>
       </c>
       <c r="M48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="3">
         <v>2400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2300</v>
       </c>
       <c r="O48" s="3">
         <v>2300</v>
@@ -3074,28 +3182,31 @@
         <v>2300</v>
       </c>
       <c r="Q48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
-      </c>
-      <c r="S48" s="3">
-        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3339,8 +3459,8 @@
       <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
+      <c r="S52" s="3">
+        <v>200</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
@@ -3351,11 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E54" s="3">
         <v>259100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>272000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>66200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>75400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>83900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>92500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>102900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>119900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>126500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>132600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>57600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>61400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
       </c>
       <c r="O57" s="3">
         <v>3000</v>
       </c>
       <c r="P57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3628,17 +3762,17 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3655,147 +3789,156 @@
       <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>200</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>22300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>24100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3839,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3848,70 +3991,73 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E62" s="3">
         <v>6500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3921,11 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-203600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-183900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-152900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-142800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-132400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-121600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-105700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-92500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-84000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-80000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-71700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-71000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-60800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-51700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E76" s="3">
         <v>244400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>257200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>65000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>83800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>89700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>97800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>101900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>104000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-12600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,17 +5719,18 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5526,46 +5747,49 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>200</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E94" s="3">
         <v>14900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-166500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>9800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1500</v>
       </c>
       <c r="L94" s="3">
         <v>-1500</v>
       </c>
       <c r="M94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-54600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>34100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6287,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>210300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6071,46 +6317,49 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>82800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>4500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,125 +6367,131 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>100</v>
       </c>
       <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
+      <c r="V101" s="3">
+        <v>100</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>32900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-64800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,52 +789,55 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E12" s="3">
         <v>17500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9100</v>
       </c>
       <c r="H12" s="3">
         <v>9100</v>
       </c>
       <c r="I12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J12" s="3">
         <v>11200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1177,8 +1197,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1192,11 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,67 +1491,70 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3400</v>
       </c>
       <c r="L20" s="3">
         <v>3400</v>
       </c>
       <c r="M20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-4900</v>
       </c>
       <c r="U21" s="3">
         <v>-4900</v>
       </c>
       <c r="V21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="W21" s="3">
         <v>-4200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1674,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
@@ -1649,79 +1689,85 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-16100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1743,24 +1789,24 @@
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1770,8 +1816,8 @@
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2343,141 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-3400</v>
       </c>
       <c r="L32" s="3">
         <v>-3400</v>
       </c>
       <c r="M32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,118 +2747,122 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E41" s="3">
         <v>46500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>121100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>31000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>33500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E42" s="3">
         <v>163300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>182300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>198300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>39700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>46300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>62000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>68800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2788,8 +2878,8 @@
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E43" s="3">
         <v>17400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1500</v>
       </c>
       <c r="R45" s="3">
         <v>1500</v>
       </c>
       <c r="S45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>800</v>
       </c>
       <c r="V45" s="3">
         <v>800</v>
       </c>
       <c r="W45" s="3">
+        <v>800</v>
+      </c>
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E46" s="3">
         <v>234500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>264300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>62500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>72100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>88700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>107900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>124100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>130100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>55200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>59400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>65700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>30200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>38000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,46 +3242,49 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>4000</v>
       </c>
       <c r="M48" s="3">
         <v>4000</v>
       </c>
       <c r="N48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O48" s="3">
         <v>2400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2300</v>
       </c>
       <c r="P48" s="3">
         <v>2300</v>
@@ -3185,28 +3293,31 @@
         <v>2300</v>
       </c>
       <c r="R48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3462,8 +3582,8 @@
       <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
+      <c r="T52" s="3">
+        <v>200</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
@@ -3474,11 +3594,14 @@
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E54" s="3">
         <v>243800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>259100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>272000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>66200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>75400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>83900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>92500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>102900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>119900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>132600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>61400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>38100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>3000</v>
       </c>
       <c r="P57" s="3">
         <v>3000</v>
       </c>
       <c r="Q57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3765,17 +3899,17 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3792,153 +3926,162 @@
       <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
+      <c r="V58" s="3">
+        <v>200</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>21600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>22300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>23200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>24100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3985,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3994,73 +4137,76 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E62" s="3">
         <v>6200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13900</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4070,11 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E66" s="3">
         <v>16300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-226100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-203600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-183900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-167800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-152900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-142800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-132400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-121600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-115000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-92500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-84000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-80000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-71700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-71000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-65800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-60800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-55900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-51700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E76" s="3">
         <v>227500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>244400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>257200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>65000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>83800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>89700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>97800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>101900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>104000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>107000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5272,7 +5471,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-10500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,20 +5940,21 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5750,46 +5971,49 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>200</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E94" s="3">
         <v>17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-166500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>9800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1500</v>
       </c>
       <c r="M94" s="3">
         <v>-1500</v>
       </c>
       <c r="N94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-54600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>34100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,29 +6533,32 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>210300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6320,178 +6566,187 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>82800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>4500</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
-      </c>
-      <c r="U101" s="3">
-        <v>100</v>
       </c>
       <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
+      <c r="W101" s="3">
+        <v>100</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-64800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>28600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,52 +795,55 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E12" s="3">
         <v>19700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9100</v>
       </c>
       <c r="I12" s="3">
         <v>9100</v>
       </c>
       <c r="J12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K12" s="3">
         <v>11200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1219,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1215,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1338,83 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E17" s="3">
         <v>26700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1422,73 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-5400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,70 +1524,73 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3400</v>
       </c>
       <c r="M20" s="3">
         <v>3400</v>
       </c>
       <c r="N20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,70 +1598,73 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-4900</v>
       </c>
       <c r="V21" s="3">
         <v>-4900</v>
       </c>
       <c r="W21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="X21" s="3">
         <v>-4200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1677,8 +1716,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
@@ -1692,82 +1731,88 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1792,24 +1837,24 @@
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1819,8 +1864,8 @@
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,141 +2412,147 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-3400</v>
       </c>
       <c r="M32" s="3">
         <v>-3400</v>
       </c>
       <c r="N32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,124 +2833,128 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E41" s="3">
         <v>45600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>46500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>121100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>31000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>33500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E42" s="3">
         <v>149200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>163300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>182300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>198300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>39700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>46300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>62000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>68800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>54800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2881,8 +2970,8 @@
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2890,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E43" s="3">
         <v>11300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1500</v>
       </c>
       <c r="S45" s="3">
         <v>1500</v>
       </c>
       <c r="T45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>800</v>
       </c>
       <c r="W45" s="3">
         <v>800</v>
       </c>
       <c r="X45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E46" s="3">
         <v>214500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>234500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>264300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>62500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>72100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>88700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>99000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>107900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>124100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>130100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>55200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>59400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>65700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>30200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>38000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,49 +3349,52 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
         <v>10400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>4000</v>
       </c>
       <c r="N48" s="3">
         <v>4000</v>
       </c>
       <c r="O48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P48" s="3">
         <v>2400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2300</v>
       </c>
       <c r="Q48" s="3">
         <v>2300</v>
@@ -3296,28 +3403,31 @@
         <v>2300</v>
       </c>
       <c r="S48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>600</v>
       </c>
       <c r="V48" s="3">
         <v>600</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3585,8 +3704,8 @@
       <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>200</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
@@ -3597,11 +3716,14 @@
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E54" s="3">
         <v>225100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>243800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>259100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>272000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>75400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>83900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>112100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>119900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>118100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>126500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>132600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>61400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>38100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3000</v>
       </c>
       <c r="Q57" s="3">
         <v>3000</v>
       </c>
       <c r="R57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3902,17 +4035,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
@@ -3929,159 +4062,168 @@
       <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
+      <c r="W58" s="3">
+        <v>200</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>20300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>21600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>22300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
         <v>9600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>23200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>24100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4140,76 +4282,79 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4219,11 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E66" s="3">
         <v>17100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-226100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-203600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-183900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-167800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-152900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-132400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-121600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-115000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-92500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-80000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-71700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-71000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-65800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-60800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-51700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E76" s="3">
         <v>207900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>227500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>244400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>257200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>65000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>83800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>89700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>97800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>101900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>104000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>107000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5474,7 +5672,7 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-10500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,23 +6160,24 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5974,46 +6194,49 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>200</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E94" s="3">
         <v>12900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-166500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1500</v>
       </c>
       <c r="N94" s="3">
         <v>-1500</v>
       </c>
       <c r="O94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-54600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>34100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,32 +6778,35 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>210300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6569,184 +6814,193 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>82800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>4500</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>100</v>
       </c>
       <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
+      <c r="X101" s="3">
+        <v>100</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>28600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,52 +802,55 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
         <v>19200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9100</v>
       </c>
       <c r="J12" s="3">
         <v>9100</v>
       </c>
       <c r="K12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
@@ -1237,11 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E17" s="3">
         <v>26800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1452,76 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,73 +1558,76 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="3">
         <v>4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3400</v>
       </c>
       <c r="N20" s="3">
         <v>3400</v>
       </c>
       <c r="O20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,73 +1635,76 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-4900</v>
       </c>
       <c r="W21" s="3">
         <v>-4900</v>
       </c>
       <c r="X21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1719,8 +1759,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
@@ -1734,85 +1774,91 @@
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1840,24 +1886,24 @@
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1867,8 +1913,8 @@
       <c r="T24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-24100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,147 +2482,153 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-3400</v>
       </c>
       <c r="N32" s="3">
         <v>-3400</v>
       </c>
       <c r="O32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-24100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-24100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,130 +2920,134 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E41" s="3">
         <v>30700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>58700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>28100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>33500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>104200</v>
+      </c>
+      <c r="E42" s="3">
         <v>135500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>149200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>163300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>182300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>198300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>39700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>62000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>71700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>70300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>68800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>54800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2973,8 +3063,8 @@
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E43" s="3">
         <v>14100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3200</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1500</v>
       </c>
       <c r="T45" s="3">
         <v>1500</v>
       </c>
       <c r="U45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V45" s="3">
         <v>2000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>800</v>
       </c>
       <c r="X45" s="3">
         <v>800</v>
       </c>
       <c r="Y45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>170400</v>
+      </c>
+      <c r="E46" s="3">
         <v>193600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>214500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>234500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>264300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>62500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>72100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>88700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>107900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>124100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>130100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>55200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>59400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>65700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>30200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>38000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,52 +3457,55 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
         <v>10000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4000</v>
       </c>
       <c r="O48" s="3">
         <v>4000</v>
       </c>
       <c r="P48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2300</v>
       </c>
       <c r="R48" s="3">
         <v>2300</v>
@@ -3406,28 +3514,31 @@
         <v>2300</v>
       </c>
       <c r="T48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U48" s="3">
         <v>1800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>600</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3707,8 +3827,8 @@
       <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
+      <c r="V52" s="3">
+        <v>200</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
@@ -3719,11 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E54" s="3">
         <v>203900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>225100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>243800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>259100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>272000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>66200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>75400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>112100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>119900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>118100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>126500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>132600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>61400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3000</v>
       </c>
       <c r="R57" s="3">
         <v>3000</v>
       </c>
       <c r="S57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4038,17 +4172,17 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
@@ -4065,165 +4199,174 @@
       <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
+      <c r="X58" s="3">
+        <v>200</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>20300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>21600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>11600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>23200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4276,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4285,79 +4428,82 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
         <v>200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4367,11 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E66" s="3">
         <v>18800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>25600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>31400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>34100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-250200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-226100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-203600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-183900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-167800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-152900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-142800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-132400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-121600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-115000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-99800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-92500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-84000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-71700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-71000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-65800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-60800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-55900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-51700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E76" s="3">
         <v>185100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>227500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>244400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>257200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>65000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>83800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>89700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>97800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>101900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>104000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>107000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-24100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,7 +5823,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5675,7 +5874,7 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>28200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,26 +6381,27 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -6197,46 +6418,49 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>200</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E94" s="3">
         <v>12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-166500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>9800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1500</v>
       </c>
       <c r="O94" s="3">
         <v>-1500</v>
       </c>
       <c r="P94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-54600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>34100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,35 +7024,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>210300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6817,190 +7063,199 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>82800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4500</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
-      </c>
-      <c r="W101" s="3">
-        <v>100</v>
       </c>
       <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
+      <c r="Y101" s="3">
+        <v>100</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>32900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-64800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>73000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>28600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -805,52 +809,55 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
-      </c>
-      <c r="X8" s="3">
-        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9100</v>
       </c>
       <c r="K12" s="3">
         <v>9100</v>
       </c>
       <c r="L12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E17" s="3">
         <v>26300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-23600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1592,79 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3400</v>
       </c>
       <c r="O20" s="3">
         <v>3400</v>
       </c>
       <c r="P20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-4900</v>
       </c>
       <c r="X21" s="3">
         <v>-4900</v>
       </c>
       <c r="Y21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1762,8 +1802,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
@@ -1777,88 +1817,94 @@
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-24100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1889,24 +1935,24 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1916,8 +1962,8 @@
       <c r="U24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-24100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-24100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2552,159 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-3400</v>
       </c>
       <c r="O32" s="3">
         <v>-3400</v>
       </c>
       <c r="P32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-24100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-24100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,136 +3007,140 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E41" s="3">
         <v>37900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>46500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>17700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>32000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>51100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>58700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>33500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E42" s="3">
         <v>104200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>135500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>149200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>163300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>182300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>198300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>39700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>62000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>71700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>70300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>68800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>54800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3066,8 +3156,8 @@
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E43" s="3">
         <v>19300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3200</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,162 +3325,171 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1500</v>
       </c>
       <c r="U45" s="3">
         <v>1500</v>
       </c>
       <c r="V45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W45" s="3">
         <v>2000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>800</v>
       </c>
       <c r="Y45" s="3">
         <v>800</v>
       </c>
       <c r="Z45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>151200</v>
+      </c>
+      <c r="E46" s="3">
         <v>170400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>193600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>214500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>249800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>264300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>72100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>88700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>107900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>124100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>130100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>55200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>59400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>30200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>34200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>38000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,55 +3565,58 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4000</v>
       </c>
       <c r="P48" s="3">
         <v>4000</v>
       </c>
       <c r="Q48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R48" s="3">
         <v>2400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2300</v>
       </c>
       <c r="S48" s="3">
         <v>2300</v>
@@ -3517,28 +3625,31 @@
         <v>2300</v>
       </c>
       <c r="U48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
-      </c>
-      <c r="W48" s="3">
-        <v>600</v>
       </c>
       <c r="X48" s="3">
         <v>600</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3830,8 +3950,8 @@
       <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="W52" s="3">
+        <v>200</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
@@ -3842,11 +3962,14 @@
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E54" s="3">
         <v>182300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>225100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>243800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>259100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>272000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>66200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>112100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>119900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>118100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>126500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>132600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>61400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>38100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3000</v>
       </c>
       <c r="S57" s="3">
         <v>3000</v>
       </c>
       <c r="T57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4175,17 +4309,17 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
@@ -4202,171 +4336,180 @@
       <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
+      <c r="Y58" s="3">
+        <v>200</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>20300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>21600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>24100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4422,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4431,82 +4574,85 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4516,11 +4662,14 @@
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>25600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>34100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-295500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-273200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-250200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-226100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-183900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-167800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-152900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-142800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-132400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-121600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-115000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-99800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-92500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-84000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-76700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-71700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-71000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-65800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-60800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-55900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-51700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E76" s="3">
         <v>164600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>185100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>227500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>244400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>257200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>65000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>83800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>89700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>97800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>101900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>96700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>104000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>107000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-24100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5826,7 +6025,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5877,7 +6076,7 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>28200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-8700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,29 +6602,30 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6421,46 +6642,49 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>200</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E94" s="3">
         <v>30000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>17600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-166500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>9800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1500</v>
       </c>
       <c r="P94" s="3">
         <v>-1500</v>
       </c>
       <c r="Q94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-54600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>34100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,29 +7282,29 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>210300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7066,196 +7312,205 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>82800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>4500</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
-      </c>
-      <c r="X101" s="3">
-        <v>100</v>
       </c>
       <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
+      <c r="Z101" s="3">
+        <v>100</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>32900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-64800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>28600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -812,52 +816,55 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E12" s="3">
         <v>18100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9100</v>
       </c>
       <c r="L12" s="3">
         <v>9100</v>
       </c>
       <c r="M12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>4500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1288,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
@@ -1283,11 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1419,92 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E17" s="3">
         <v>25900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1512,82 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-23600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,79 +1626,82 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3400</v>
       </c>
       <c r="P20" s="3">
         <v>3400</v>
       </c>
       <c r="Q20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1709,82 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-4900</v>
       </c>
       <c r="Y21" s="3">
         <v>-4900</v>
       </c>
       <c r="Z21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,8 +1845,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>5</v>
@@ -1820,91 +1860,97 @@
       <c r="AA22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-19700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1938,24 +1984,24 @@
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1965,8 +2011,8 @@
       <c r="V24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-24100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-24100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,159 +2622,165 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-3400</v>
       </c>
       <c r="P32" s="3">
         <v>-3400</v>
       </c>
       <c r="Q32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,142 +3094,146 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E41" s="3">
         <v>38600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>46500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>51100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>58700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>26500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>33500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E42" s="3">
         <v>83700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>104200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>135500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>149200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>163300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>182300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>198300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>39700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>46300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>62000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>71700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>70300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>68800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>54800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3159,8 +3249,8 @@
       <c r="Y42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E43" s="3">
         <v>21900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>19300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3200</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,168 +3424,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1900</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1500</v>
       </c>
       <c r="V45" s="3">
         <v>1500</v>
       </c>
       <c r="W45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X45" s="3">
         <v>2000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>800</v>
       </c>
       <c r="Z45" s="3">
         <v>800</v>
       </c>
       <c r="AA45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E46" s="3">
         <v>151200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>170400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>193600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>214500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>249800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>264300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>62500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>72100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>88700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>99000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>107900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>124100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>130100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>55200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>59400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>65700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>34200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>38000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,58 +3673,61 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E48" s="3">
         <v>11400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4000</v>
       </c>
       <c r="Q48" s="3">
         <v>4000</v>
       </c>
       <c r="R48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S48" s="3">
         <v>2400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2300</v>
       </c>
       <c r="T48" s="3">
         <v>2300</v>
@@ -3628,28 +3736,31 @@
         <v>2300</v>
       </c>
       <c r="V48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W48" s="3">
         <v>1800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>800</v>
-      </c>
-      <c r="X48" s="3">
-        <v>600</v>
       </c>
       <c r="Y48" s="3">
         <v>600</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
       </c>
       <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3953,8 +4073,8 @@
       <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
+      <c r="X52" s="3">
+        <v>200</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
@@ -3965,11 +4085,14 @@
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203500</v>
+      </c>
+      <c r="E54" s="3">
         <v>162800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>182300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>203900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>225100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>243800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>259100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>272000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>112100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>119900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>118100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>126500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>132600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>57600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>61400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>38100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3000</v>
       </c>
       <c r="T57" s="3">
         <v>3000</v>
       </c>
       <c r="U57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4312,17 +4446,17 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
@@ -4339,177 +4473,186 @@
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
+      <c r="Z58" s="3">
+        <v>200</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>20300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>20900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>24100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4568,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -4577,85 +4720,88 @@
         <v>100</v>
       </c>
       <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4665,11 +4811,14 @@
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5063,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5075,82 @@
         <v>19000</v>
       </c>
       <c r="E66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F66" s="3">
         <v>17700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>25600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>34100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-316800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-295500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-273200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-250200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-226100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-203600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-183900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-167800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-152900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-142800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-132400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-121600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-115000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-92500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-84000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-80000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-76700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-71700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-71000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-65800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-60800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-55900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-51700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>184400</v>
+      </c>
+      <c r="E76" s="3">
         <v>143800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>164600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>185100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>207900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>227500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>244400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>257200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>83800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>89700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>97800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>101900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>96700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>104000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>107000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>34800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6028,7 +6227,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -6079,7 +6278,7 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-8700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,32 +6823,33 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6645,46 +6866,49 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>200</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>20100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>30000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>17600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-166500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q94" s="3">
         <v>-1500</v>
       </c>
       <c r="R94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-54600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>34100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,41 +7516,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>57800</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>210300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7315,202 +7561,211 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>82800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>4500</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>100</v>
       </c>
       <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
+      <c r="AA101" s="3">
+        <v>100</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>32900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-64800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>30600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>28600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -819,52 +822,55 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>100</v>
       </c>
       <c r="AA8" s="3">
         <v>100</v>
       </c>
       <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="3">
         <v>20100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9100</v>
       </c>
       <c r="M12" s="3">
         <v>9100</v>
       </c>
       <c r="N12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>4500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1291,8 +1310,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
@@ -1306,11 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1445,95 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1541,85 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-25900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,82 +1659,85 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3400</v>
       </c>
       <c r="Q20" s="3">
         <v>3400</v>
       </c>
       <c r="R20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1745,85 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-5000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-4900</v>
       </c>
       <c r="Z21" s="3">
         <v>-4900</v>
       </c>
       <c r="AA21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1848,8 +1887,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>5</v>
@@ -1863,94 +1902,100 @@
       <c r="AB22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1987,24 +2032,24 @@
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2014,8 +2059,8 @@
       <c r="W24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-24100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-24100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,165 +2691,171 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-3400</v>
       </c>
       <c r="Q32" s="3">
         <v>-3400</v>
       </c>
       <c r="R32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,148 +3180,152 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E41" s="3">
         <v>85000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>46500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>58700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>26500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>31000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>33500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>93100</v>
+      </c>
+      <c r="E42" s="3">
         <v>86600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>135500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>149200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>163300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>182300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>198300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>39700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>46300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>62000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>71700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>68800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>54800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3252,8 +3341,8 @@
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3261,91 +3350,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>21900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>19300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>9000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3200</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,174 +3522,183 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1500</v>
       </c>
       <c r="W45" s="3">
         <v>1500</v>
       </c>
       <c r="X45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y45" s="3">
         <v>2000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>800</v>
       </c>
       <c r="AA45" s="3">
         <v>800</v>
       </c>
       <c r="AB45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E46" s="3">
         <v>192100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>151200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>170400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>193600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>214500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>234500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>249800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>264300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>62500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>72100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>80200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>88700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>99000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>107900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>124100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>130100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>55200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>59400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>65700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>34100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>34200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>38000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,61 +3780,64 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>11100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>4000</v>
       </c>
       <c r="R48" s="3">
         <v>4000</v>
       </c>
       <c r="S48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T48" s="3">
         <v>2400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2300</v>
       </c>
       <c r="U48" s="3">
         <v>2300</v>
@@ -3739,28 +3846,31 @@
         <v>2300</v>
       </c>
       <c r="W48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X48" s="3">
         <v>1800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>600</v>
       </c>
       <c r="Z48" s="3">
         <v>600</v>
       </c>
       <c r="AA48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AB48" s="3">
         <v>100</v>
       </c>
       <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,13 +4124,16 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -4076,8 +4195,8 @@
       <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
+      <c r="Y52" s="3">
+        <v>200</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
@@ -4088,11 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>183200</v>
+      </c>
+      <c r="E54" s="3">
         <v>203500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>162800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>182300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>203900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>225100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>243800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>259100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>272000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>83900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>112100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>119900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>118100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>126500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>132600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>57600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>61400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>66700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>30800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>34300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>38100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>3000</v>
       </c>
       <c r="U57" s="3">
         <v>3000</v>
       </c>
       <c r="V57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4449,17 +4582,17 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
@@ -4476,183 +4609,192 @@
       <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
+      <c r="AA58" s="3">
+        <v>200</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>20300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>22300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>24100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4714,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
@@ -4723,88 +4865,91 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13900</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4814,11 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19000</v>
+        <v>22200</v>
       </c>
       <c r="E66" s="3">
         <v>19000</v>
       </c>
       <c r="F66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G66" s="3">
         <v>17700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>25600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>31400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>34100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-343100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-316800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-295500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-273200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-250200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-226100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-203600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-183900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-167800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-152900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-142800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-132400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-121600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-105700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-99800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-92500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-84000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-80000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-76700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-71700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-65800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-60800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-55900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-51700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E76" s="3">
         <v>184400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>143800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>185100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>207900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>227500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>244400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>257200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>83800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>89700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>97800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>101900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>96700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>104000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>107000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>34800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6230,7 +6428,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -6281,7 +6479,7 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6295,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-8700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,35 +7043,36 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6869,46 +7089,49 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>200</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>17600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>14900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-166500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9800</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1500</v>
       </c>
       <c r="R94" s="3">
         <v>-1500</v>
       </c>
       <c r="S94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-54600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>34100</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,44 +7761,47 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>57800</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>210300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7564,208 +7809,217 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>82800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>4500</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>100</v>
       </c>
       <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
+      <c r="AB101" s="3">
+        <v>100</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E102" s="3">
         <v>46500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-64800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>73000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>30600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>28600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KALV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>KALV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -825,52 +829,55 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>100</v>
       </c>
       <c r="AB8" s="3">
         <v>100</v>
       </c>
       <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="3">
         <v>200</v>
       </c>
-      <c r="AD8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E12" s="3">
         <v>24000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11900</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9100</v>
       </c>
       <c r="N12" s="3">
         <v>9100</v>
       </c>
       <c r="O12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>4400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>3300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
@@ -1328,11 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,94 +1472,98 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-12800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-12700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-8200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,85 +1693,88 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3400</v>
       </c>
       <c r="R20" s="3">
         <v>3400</v>
       </c>
       <c r="S20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,85 +1782,88 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-22100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-22900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-4900</v>
       </c>
       <c r="AA21" s="3">
         <v>-4900</v>
       </c>
       <c r="AB21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1890,8 +1930,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
@@ -1905,120 +1945,126 @@
       <c r="AC22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -2035,24 +2081,24 @@
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>5</v>
       </c>
@@ -2062,8 +2108,8 @@
       <c r="X24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-24100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-24100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,171 +2761,177 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3400</v>
       </c>
       <c r="R32" s="3">
         <v>-3400</v>
       </c>
       <c r="S32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,154 +3267,158 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E41" s="3">
         <v>56200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>46500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>56300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>121100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>58700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>28100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>26500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>31000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>33500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>35200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E42" s="3">
         <v>93100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>86600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>135500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>149200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>163300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>182300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>198300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>39700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>46300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>62000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>71700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>70300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>68800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>54800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3344,8 +3434,8 @@
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E43" s="3">
         <v>18600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>9000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3200</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,180 +3621,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1500</v>
       </c>
       <c r="X45" s="3">
         <v>1500</v>
       </c>
       <c r="Y45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z45" s="3">
         <v>2000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>800</v>
       </c>
       <c r="AB45" s="3">
         <v>800</v>
       </c>
       <c r="AC45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD45" s="3">
         <v>1200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E46" s="3">
         <v>172300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>192100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>151200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>170400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>193600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>214500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>234500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>264300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>62500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>80200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>88700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>99000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>107900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>124100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>130100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>55200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>59400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>65700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>34100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>34200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>38000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,64 +3888,67 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>4000</v>
       </c>
       <c r="S48" s="3">
         <v>4000</v>
       </c>
       <c r="T48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U48" s="3">
         <v>2400</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2300</v>
       </c>
       <c r="V48" s="3">
         <v>2300</v>
@@ -3849,28 +3957,31 @@
         <v>2300</v>
       </c>
       <c r="X48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>800</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>600</v>
       </c>
       <c r="AA48" s="3">
         <v>600</v>
       </c>
       <c r="AB48" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AC48" s="3">
         <v>100</v>
       </c>
       <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4136,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -4198,8 +4318,8 @@
       <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
+      <c r="Z52" s="3">
+        <v>200</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
@@ -4210,11 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E54" s="3">
         <v>183200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>162800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>182300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>203900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>225100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>243800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>259100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>272000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>112100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>119900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>118100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>126500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>132600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>61400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>66700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>30800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>34300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>38100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>35900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>3000</v>
       </c>
       <c r="V57" s="3">
         <v>3000</v>
       </c>
       <c r="W57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4585,17 +4719,17 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
@@ -4612,189 +4746,198 @@
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
+      <c r="AB58" s="3">
+        <v>200</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>20300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>22300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E60" s="3">
         <v>15000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>20900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>24100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4859,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -4868,91 +5011,94 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>200</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E62" s="3">
         <v>7100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13900</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4962,11 +5108,14 @@
       <c r="AC62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>19000</v>
       </c>
       <c r="F66" s="3">
         <v>19000</v>
       </c>
       <c r="G66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H66" s="3">
         <v>17700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>25600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>31400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>34100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-368400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-343100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-316800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-295500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-273200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-250200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-226100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-203600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-183900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-167800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-152900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-142800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-132400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-121600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-115000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-105700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-99800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-92500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-84000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-80000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-76700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-71700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-71000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-65800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-60800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-55900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-51700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-89000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E76" s="3">
         <v>161000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>184400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>143800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>164600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>185100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>207900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>227500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>244400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>257200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>65000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>83800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>89700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>97800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>101900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>96700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>104000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>107000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>26700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>34800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6431,7 +6630,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -6482,7 +6681,7 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>28200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-8700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,38 +7264,39 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7092,46 +7313,49 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>200</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>30000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>17600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-166500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>9800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-1500</v>
       </c>
       <c r="S94" s="3">
         <v>-1500</v>
       </c>
       <c r="T94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-54600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-100</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>34100</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,47 +8007,50 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>57800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>210300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7812,46 +8058,49 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>82800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>9100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>4500</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,167 +8108,173 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>100</v>
       </c>
       <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
+      <c r="AC101" s="3">
+        <v>100</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>46500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-64800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>73000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>28600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1600</v>
       </c>
     </row>
